--- a/biology/Botanique/André_Dominé/André_Dominé.xlsx
+++ b/biology/Botanique/André_Dominé/André_Dominé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Domin%C3%A9</t>
+          <t>André_Dominé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Dominé, né en 1946, est un journaliste allemand et un expert en vins.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Domin%C3%A9</t>
+          <t>André_Dominé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est auteur et éditeur des nombreux livres sur le vin et de la gastronomie, ainsi que le correspondant de plusieurs magazines de vin et de gastronomiques dans le Sud de la France. Il s'est installé en 1981 dans un village de vignerons du Midi-Pyrénées. Son premier ouvrage et chef-d'œuvre sur le vin, initialement éditée en Allemagne, est publiée en 1986.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Domin%C3%A9</t>
+          <t>André_Dominé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trunken vom Roussillon, éd. Tramontane, 1987
 Die Kunst des Aperitif. Rezepte, Getränke, Philosophie Weingarten, 1989
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Domin%C3%A9</t>
+          <t>André_Dominé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Honneurs et décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2001 : Prix du Champagne Lanson</t>
         </is>
